--- a/com.Amokartproject/src/test/resources/data/Exceldata.xlsx
+++ b/com.Amokartproject/src/test/resources/data/Exceldata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>S.no</t>
   </si>
@@ -78,14 +78,64 @@
     <t>user9</t>
   </si>
   <si>
-    <t>Reshma</t>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12865292788</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15854042365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18842791942</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21831541519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24820291096</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27809040673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30797790250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33786539827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 777</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 666</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -126,10 +176,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,26 +477,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" style="1" width="20.7109375"/>
-    <col min="4" max="4" style="1" width="9.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.0"/>
-    <col min="6" max="6" customWidth="true" style="1" width="16.140625"/>
-    <col min="7" max="7" customWidth="true" width="20.0"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -459,220 +511,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>111</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9876543211</v>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>36526</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
-        <v>222</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12865292788</v>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>36527</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>333</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15854042365</v>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <v>36528</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>444</v>
-      </c>
-      <c r="E5" s="1">
-        <v>18842791942</v>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="1">
         <v>36529</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>555</v>
-      </c>
-      <c r="E6" s="1">
-        <v>21831541519</v>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>36530</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="0">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
-        <v>666</v>
-      </c>
-      <c r="E7" s="1">
-        <v>24820291096</v>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>36531</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>777</v>
-      </c>
-      <c r="E8" s="1">
-        <v>27809040673</v>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>36532</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
-        <v>888</v>
-      </c>
-      <c r="E9" s="1">
-        <v>30797790250</v>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>36533</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>33786539827</v>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>36534</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
